--- a/Tools/本地数据表/Sys_Localization.xlsx
+++ b/Tools/本地数据表/Sys_Localization.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24117"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24312"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YouYouTools\本地数据表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\StudyFramework\Tools\本地数据表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D12D05-D210-473E-85A4-741EADB5868B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AECB840D-813F-497E-AFD4-589BFBCDA6ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,10 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -67,35 +63,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>任务表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Task.Name.1001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xiaoshishenshou</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小试身手{0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Loading</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Loading.CheckVersion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正在加载场景{0}%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Loading.ChangeScene</t>
+    <t>系统码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Connect.TimeOut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SingError</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reg.UserNameExists</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login.UnExists</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input.UserNameEmpty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input.PwdEmpty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接超时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签名错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册失败 账号已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆失败 账号或密码错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -421,11 +445,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -445,10 +469,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
         <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -470,55 +494,85 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>1001</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
